--- a/Templates/User_inputs_1.0.0.xlsx
+++ b/Templates/User_inputs_1.0.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.faivre\PycharmProjects\ECL cost models\Working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F95AA4C-558D-4B94-942F-B372EAC3DF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0327C4F-96DC-4713-AB86-EDBFAF37074C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{3D3606FB-9301-4AD0-98C2-CCA38780FF77}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D3606FB-9301-4AD0-98C2-CCA38780FF77}"/>
   </bookViews>
   <sheets>
     <sheet name="Clustering" sheetId="5" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Years" sheetId="6" r:id="rId5"/>
     <sheet name="Notice" sheetId="8" r:id="rId6"/>
     <sheet name="BDD" sheetId="7" r:id="rId7"/>
+    <sheet name="Sectors list" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Compare ECL EGM'!$B$2:$C$21</definedName>
@@ -46,8 +47,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="188">
   <si>
     <t>Zone</t>
   </si>
@@ -601,6 +624,18 @@
   </si>
   <si>
     <t>Pour chaque période (ligne) indiquer le prix minimal et maximal en €/MWh (ces prix doivent être des entiers) pour la recherche des meilleurs prix d'initialisation du modèle</t>
+  </si>
+  <si>
+    <t>Is controllable</t>
+  </si>
+  <si>
+    <t>RES</t>
+  </si>
+  <si>
+    <t>Remaining sectors</t>
+  </si>
+  <si>
+    <t>All sectors</t>
   </si>
 </sst>
 </file>
@@ -990,13 +1025,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CDFF48B2-64DE-4BB7-9073-E3BBBD1170AB}" name="Sector_clustering" displayName="Sector_clustering" ref="D1:E8" totalsRowShown="0" tableBorderDxfId="2">
-  <autoFilter ref="D1:E8" xr:uid="{CDFF48B2-64DE-4BB7-9073-E3BBBD1170AB}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CDFF48B2-64DE-4BB7-9073-E3BBBD1170AB}" name="Sector_clustering" displayName="Sector_clustering" ref="D1:F9" totalsRowShown="0" tableBorderDxfId="2">
+  <autoFilter ref="D1:F9" xr:uid="{CDFF48B2-64DE-4BB7-9073-E3BBBD1170AB}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{35A1A0C4-9289-4D35-8AF5-C49017584BAE}" name="Main sector" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{77E8F885-B702-4DF6-A7F0-EA78C95E88C6}" name="Is storage" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{B920ECD0-D2FA-4A3E-91F8-1A2DB93C510C}" name="Is controllable"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1320,22 +1356,23 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.81640625" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="10"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1349,8 +1386,11 @@
       <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1364,8 +1404,11 @@
       <c r="E2" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>16</v>
       </c>
@@ -1379,8 +1422,11 @@
       <c r="E3" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1394,8 +1440,11 @@
       <c r="E4" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>24</v>
       </c>
@@ -1409,8 +1458,11 @@
       <c r="E5" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1424,8 +1476,11 @@
       <c r="E6" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1439,8 +1494,11 @@
       <c r="E7" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1452,16 +1510,28 @@
         <v>179</v>
       </c>
       <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>45</v>
       </c>
       <c r="B9" t="str">
         <f>VLOOKUP(A9,BDD!B:D,3,FALSE)</f>
         <v>United Kingdom</v>
+      </c>
+      <c r="D9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1482,7 +1552,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1660,11 +1730,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1761,15 +1831,67 @@
         <v>176</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>185</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{6761CE3E-10FB-47BA-AAAE-044E9794F4EE}"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B11" xr:uid="{4C93124C-134B-4463-AC67-C2C550B17AEF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B16" xr:uid="{4C93124C-134B-4463-AC67-C2C550B17AEF}">
       <formula1>INDIRECT("Sector_clustering[Main sector]")</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{58DDDB24-74D4-4934-A905-8FE333320594}">
+          <x14:formula1>
+            <xm:f>'Sectors list'!$B$3:$B$19</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A18</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1952,7 +2074,7 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2021,8 +2143,8 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2157,8 +2279,8 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2677,18 +2799,129 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="780399fe-2133-4349-a0e7-53824f1dae47">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="27d3a517-4705-4b45-9ea7-12bdf953c8a9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C75784A-EB41-44B2-BFA4-488D58D339A2}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.89999084444715716"/>
+  </sheetPr>
+  <dimension ref="B2:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="30.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="str" cm="1">
+        <f t="array" ref="C3:C4">_xlfn._xlws.FILTER(B3:B19, ISNA(MATCH(B3:B19, Sectors!A2:A16, 0)))</f>
+        <v>geothermal</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="str">
+        <v>waste</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010037B722CC9AC5C444AAE886EDD40B6781" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="62f3e12650e25baa9087e793e2ad5c2b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="780399fe-2133-4349-a0e7-53824f1dae47" xmlns:ns3="27d3a517-4705-4b45-9ea7-12bdf953c8a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6321ff521e5dc27e65c92a6ebe88ef1a" ns2:_="" ns3:_="">
     <xsd:import namespace="780399fe-2133-4349-a0e7-53824f1dae47"/>
@@ -2883,7 +3116,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2892,18 +3125,18 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{095D11A8-AEE4-4713-9C10-8A612E26E3A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="780399fe-2133-4349-a0e7-53824f1dae47"/>
-    <ds:schemaRef ds:uri="27d3a517-4705-4b45-9ea7-12bdf953c8a9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="780399fe-2133-4349-a0e7-53824f1dae47">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="27d3a517-4705-4b45-9ea7-12bdf953c8a9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAF17669-6C7C-4E21-8494-284FAAABAA3B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2922,10 +3155,21 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AF68339-774A-4120-A9CD-FEEF8F07C651}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{095D11A8-AEE4-4713-9C10-8A612E26E3A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="780399fe-2133-4349-a0e7-53824f1dae47"/>
+    <ds:schemaRef ds:uri="27d3a517-4705-4b45-9ea7-12bdf953c8a9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>